--- a/Python/output/case-study/st_SA_FAresults-KPI.xlsx
+++ b/Python/output/case-study/st_SA_FAresults-KPI.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Desktop/temp/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9F953F-FA8D-0544-B2AC-4CC8A6EC8B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="10660" windowWidth="27300" windowHeight="15700" tabRatio="500"/>
+    <workbookView xWindow="13780" yWindow="13080" windowWidth="27300" windowHeight="15700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trans_SA_FAresults-KPI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -83,6 +84,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -350,11 +354,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -390,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1405.4018974139101</v>
+        <v>1535.6830860763801</v>
       </c>
       <c r="H2">
-        <v>15152.3656063254</v>
+        <v>15225.7511101741</v>
       </c>
       <c r="I2">
-        <v>23191.432706494899</v>
+        <v>23522.883315536299</v>
       </c>
       <c r="J2">
-        <v>19455.107233487801</v>
+        <v>19357.243296258199</v>
       </c>
       <c r="K2">
-        <v>17671.271121744401</v>
+        <v>18464.9123915987</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -423,16 +427,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="R2">
-        <v>0.69299999999999995</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="S2">
-        <v>0.88300000000000001</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="T2">
-        <v>0.878</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="U2">
-        <v>0.77200000000000002</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -450,19 +454,19 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>21621.567652521699</v>
+        <v>23625.893631944298</v>
       </c>
       <c r="AB2">
-        <v>21864.885434813001</v>
+        <v>21782.190429433598</v>
       </c>
       <c r="AC2">
-        <v>26264.363201013501</v>
+        <v>26459.936237948601</v>
       </c>
       <c r="AD2">
-        <v>22158.4364846102</v>
+        <v>22800.050996770598</v>
       </c>
       <c r="AE2">
-        <v>22890.247567026399</v>
+        <v>23764.3660123523</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -485,14 +489,14 @@
       <c r="AL2">
         <v>0</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
+      <c r="AM2" s="1">
+        <v>3.9402810099958599E-10</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>77.392788372883302</v>
       </c>
       <c r="AO2">
-        <v>47.745766372923001</v>
+        <v>130.70909123094799</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -501,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>62356.3632349076</v>
+        <v>78106.473199644097</v>
       </c>
       <c r="AS2">
-        <v>49540.516392110301</v>
+        <v>50697.273153351402</v>
       </c>
       <c r="AT2">
-        <v>258.68633324750601</v>
+        <v>184.54846031123901</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
@@ -530,16 +534,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>14503.349395454599</v>
+        <v>14644.6858046045</v>
       </c>
       <c r="H3">
-        <v>27115.793171804002</v>
+        <v>27407.792237613001</v>
       </c>
       <c r="I3">
-        <v>23447.207425557499</v>
+        <v>23766.275375901299</v>
       </c>
       <c r="J3">
-        <v>19343.280036453401</v>
+        <v>19277.522172099401</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -563,13 +567,13 @@
         <v>0.63300000000000001</v>
       </c>
       <c r="R3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0.92200000000000004</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="T3">
-        <v>0.83499999999999996</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -590,16 +594,16 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>22912.084353008901</v>
+        <v>23135.364620228302</v>
       </c>
       <c r="AB3">
-        <v>27669.176705922499</v>
+        <v>27407.792237613001</v>
       </c>
       <c r="AC3">
-        <v>25430.8106567869</v>
+        <v>25974.0714490725</v>
       </c>
       <c r="AD3">
-        <v>23165.604761107101</v>
+        <v>23828.828395672899</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -623,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>29.939842693673999</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.4722042540484901</v>
       </c>
       <c r="AN3">
-        <v>36.1214598295348</v>
+        <v>32.395950729590403</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -641,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>62237.1473834629</v>
+        <v>85096.275590217905</v>
       </c>
       <c r="AS3">
-        <v>57167.626047763297</v>
+        <v>57777.725226495997</v>
       </c>
       <c r="AT3">
-        <v>351.74452509743298</v>
+        <v>275.19814288144102</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
@@ -667,16 +671,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13355.3850532663</v>
+        <v>13557.8254831629</v>
       </c>
       <c r="G4">
-        <v>27471.408517804801</v>
+        <v>27457.739379734499</v>
       </c>
       <c r="H4">
-        <v>27792.339329538499</v>
+        <v>28026.869818484</v>
       </c>
       <c r="I4">
-        <v>22238.5296703606</v>
+        <v>22594.787147544299</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -706,7 +710,7 @@
         <v>0.996</v>
       </c>
       <c r="S4">
-        <v>0.82199999999999995</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -727,16 +731,16 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>27311.625875800299</v>
+        <v>27725.6144849958</v>
       </c>
       <c r="AA4">
-        <v>27471.408517804801</v>
+        <v>27457.739379734499</v>
       </c>
       <c r="AB4">
-        <v>27903.955150139001</v>
+        <v>28139.4275285984</v>
       </c>
       <c r="AC4">
-        <v>27054.172348370499</v>
+        <v>27826.092546236901</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -762,11 +766,11 @@
       <c r="AK4">
         <v>0</v>
       </c>
-      <c r="AL4">
-        <v>0</v>
+      <c r="AL4" s="1">
+        <v>-2.2786858789551101E-10</v>
       </c>
       <c r="AM4">
-        <v>63.080620199450003</v>
+        <v>69.782604835440395</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -781,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>62273.117351444896</v>
+        <v>91637.221828923794</v>
       </c>
       <c r="AS4">
-        <v>63685.860230563703</v>
+        <v>64381.757472895697</v>
       </c>
       <c r="AT4">
-        <v>421.94616619722598</v>
+        <v>338.284150573413</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
@@ -804,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13283.7505871624</v>
+        <v>13547.8118764602</v>
       </c>
       <c r="F5">
-        <v>25393.689132486099</v>
+        <v>25430.750109982499</v>
       </c>
       <c r="G5">
-        <v>32539.3114852285</v>
+        <v>32678.171766084299</v>
       </c>
       <c r="H5">
-        <v>23828.884816177098</v>
+        <v>24076.056006483501</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -864,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>27165.1341250765</v>
+        <v>27705.136761677299</v>
       </c>
       <c r="Z5">
-        <v>25393.689132486099</v>
+        <v>25430.750109982499</v>
       </c>
       <c r="AA5">
-        <v>32539.3114852285</v>
+        <v>32678.171766084299</v>
       </c>
       <c r="AB5">
-        <v>24315.188587935801</v>
+        <v>24567.404088248499</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -897,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
+        <v>0.17778624373571</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>1.99341603431291E-11</v>
       </c>
       <c r="AL5">
-        <v>0.41947465993491101</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
+        <v>7.9164850868996899</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>-1.6177825619341999E-16</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -921,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>62351.432177600997</v>
+        <v>95732.789759008796</v>
       </c>
       <c r="AS5">
-        <v>67840.165358441096</v>
+        <v>68449.081454617306</v>
       </c>
       <c r="AT5">
-        <v>388.27784399053297</v>
+        <v>310.04020221046397</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
@@ -953,22 +957,22 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="I6">
-        <v>645.11064154129303</v>
+        <v>1568.10975872376</v>
       </c>
       <c r="J6">
-        <v>10330.175213639401</v>
+        <v>9869.8458710506002</v>
       </c>
       <c r="K6">
-        <v>25982.3926766314</v>
+        <v>25990.539275126699</v>
       </c>
       <c r="L6">
-        <v>19399.8129603917</v>
+        <v>19360.282094247599</v>
       </c>
       <c r="M6">
-        <v>15350.9801623659</v>
+        <v>15925.687364056201</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -989,22 +993,22 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="U6">
-        <v>4.3999999999999997E-2</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="V6">
-        <v>0.97699999999999998</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="W6">
-        <v>0.98599999999999999</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="X6">
-        <v>0.80200000000000005</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="Y6">
-        <v>0.64</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1028,19 +1032,19 @@
         <v>34000</v>
       </c>
       <c r="AG6">
-        <v>14661.6054895748</v>
+        <v>9012.1250501365994</v>
       </c>
       <c r="AH6">
-        <v>10573.3625523433</v>
+        <v>10259.7150426721</v>
       </c>
       <c r="AI6">
-        <v>26351.3110310663</v>
+        <v>26413.149669844199</v>
       </c>
       <c r="AJ6">
-        <v>24189.292968069502</v>
+        <v>24475.704289009602</v>
       </c>
       <c r="AK6">
-        <v>23985.906493574399</v>
+        <v>25159.063753319599</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1069,14 +1073,14 @@
       <c r="AT6">
         <v>0</v>
       </c>
-      <c r="AU6" s="1">
-        <v>-1.6313759300105199E-9</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>-6.9580538617431297E-10</v>
+      <c r="AU6">
+        <v>23.8237949470785</v>
+      </c>
+      <c r="AV6">
+        <v>6.7409482626257597</v>
       </c>
       <c r="AW6">
-        <v>78.025385222866504</v>
+        <v>107.69572988842501</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -1085,13 +1089,13 @@
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>57364.847446306798</v>
+        <v>72952.464363205101</v>
       </c>
       <c r="BA6">
-        <v>48366.921036238302</v>
+        <v>49349.571813202703</v>
       </c>
       <c r="BB6">
-        <v>448.933883617829</v>
+        <v>255.59195194692299</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
@@ -1117,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>144.15577124805901</v>
+        <v>348.574876358783</v>
       </c>
       <c r="I7">
-        <v>6100.4333012787602</v>
+        <v>5958.6700849487697</v>
       </c>
       <c r="J7">
-        <v>30460.2564201649</v>
+        <v>30565.014191755901</v>
       </c>
       <c r="K7">
-        <v>25346.824533468</v>
+        <v>25217.5469133732</v>
       </c>
       <c r="L7">
-        <v>17656.829102971999</v>
+        <v>18557.016376922598</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1162,10 +1166,10 @@
         <v>0.998</v>
       </c>
       <c r="W7">
-        <v>0.93200000000000005</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="X7">
-        <v>0.78</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1189,19 +1193,19 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>7207.7885624029896</v>
+        <v>17428.743817939099</v>
       </c>
       <c r="AG7">
-        <v>6118.7896702896296</v>
+        <v>5976.5998846025796</v>
       </c>
       <c r="AH7">
-        <v>30521.299018201302</v>
+        <v>30626.2667252063</v>
       </c>
       <c r="AI7">
-        <v>27196.163662519299</v>
+        <v>26628.877416444899</v>
       </c>
       <c r="AJ7">
-        <v>22636.960388425599</v>
+        <v>23225.302098776701</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -1233,14 +1237,14 @@
       <c r="AT7">
         <v>0</v>
       </c>
-      <c r="AU7">
-        <v>0</v>
+      <c r="AU7" s="1">
+        <v>-3.1338774934949201E-12</v>
       </c>
       <c r="AV7">
-        <v>21.525842183551099</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
+        <v>10.788178300779</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>-2.48717004138803E-14</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -1249,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>57112.915270917998</v>
+        <v>80646.822443359095</v>
       </c>
       <c r="BA7">
-        <v>56454.975324331201</v>
+        <v>57222.045606976899</v>
       </c>
       <c r="BB7">
-        <v>604.96069714873897</v>
+        <v>433.707665566819</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
@@ -1281,16 +1285,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4971.1988376727704</v>
+        <v>4971.2507151616101</v>
       </c>
       <c r="I8">
-        <v>33082.923194830997</v>
+        <v>33317.8047554105</v>
       </c>
       <c r="J8">
-        <v>28312.0569770654</v>
+        <v>28677.1331406764</v>
       </c>
       <c r="K8">
-        <v>21843.829128824</v>
+        <v>22152.563662696401</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1323,10 +1327,10 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>0.97899999999999998</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="W8">
-        <v>0.8</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1353,16 +1357,16 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>4971.1988376727704</v>
+        <v>4971.2507151616101</v>
       </c>
       <c r="AG8">
-        <v>33082.923194830997</v>
+        <v>33317.8047554105</v>
       </c>
       <c r="AH8">
-        <v>28919.363612937101</v>
+        <v>28879.288157780898</v>
       </c>
       <c r="AI8">
-        <v>27304.78641103</v>
+        <v>27970.408665020699</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1391,20 +1395,20 @@
       <c r="AR8">
         <v>0</v>
       </c>
-      <c r="AS8" s="1">
-        <v>1.7768937232157301E-9</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>1.0881614224502E-8</v>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
       </c>
       <c r="AU8">
-        <v>33.355786906092298</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>1.6340358872907599E-9</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>1.61841302516961E-10</v>
+        <v>2.25115153486886</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -1413,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="AZ8">
-        <v>57942.262994782002</v>
+        <v>89118.752273944003</v>
       </c>
       <c r="BA8">
-        <v>64884.5667508552</v>
+        <v>65570.485774551998</v>
       </c>
       <c r="BB8">
-        <v>533.04311441115897</v>
+        <v>310.21800255608701</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
@@ -1442,16 +1446,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4378.8272545927903</v>
+        <v>4378.82726051386</v>
       </c>
       <c r="H9">
-        <v>33896.954200699198</v>
+        <v>34000</v>
       </c>
       <c r="I9">
-        <v>30616.612018700202</v>
+        <v>30602.999020662999</v>
       </c>
       <c r="J9">
-        <v>24101.3458123604</v>
+        <v>24562.8772041907</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1487,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="V9">
-        <v>0.90400000000000003</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1514,16 +1518,16 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>4378.8272545927903</v>
+        <v>4378.82726051386</v>
       </c>
       <c r="AF9">
-        <v>33896.954200699198</v>
+        <v>34000</v>
       </c>
       <c r="AG9">
-        <v>30616.612018700202</v>
+        <v>30602.999020662999</v>
       </c>
       <c r="AH9">
-        <v>26660.7807658854</v>
+        <v>26497.170662557401</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1552,14 +1556,14 @@
       <c r="AQ9">
         <v>0</v>
       </c>
-      <c r="AR9" s="1">
-        <v>4.6985657367459801E-9</v>
+      <c r="AR9">
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.58437712818976595</v>
-      </c>
-      <c r="AT9">
-        <v>0.41259460422298</v>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>-3.5644516436120698E-11</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -1577,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="AZ9">
-        <v>58323.408445015397</v>
+        <v>93544.703485366903</v>
       </c>
       <c r="BA9">
-        <v>69614.502191169493</v>
+        <v>69959.401329425702</v>
       </c>
       <c r="BB9">
-        <v>479.24740676623998</v>
+        <v>273.18234600724799</v>
       </c>
     </row>
   </sheetData>

--- a/Python/output/case-study/st_SA_FAresults-KPI.xlsx
+++ b/Python/output/case-study/st_SA_FAresults-KPI.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Desktop/temp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9F953F-FA8D-0544-B2AC-4CC8A6EC8B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="13080" windowWidth="27300" windowHeight="15700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13780" yWindow="10880" windowWidth="27300" windowHeight="15700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Trans_SA_FAresults-KPI" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -354,11 +353,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -394,19 +393,19 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1535.6830860763801</v>
+        <v>1486.0285581237199</v>
       </c>
       <c r="H2">
-        <v>15225.7511101741</v>
+        <v>15323.569889185101</v>
       </c>
       <c r="I2">
-        <v>23522.883315536299</v>
+        <v>23463.267246389201</v>
       </c>
       <c r="J2">
-        <v>19357.243296258199</v>
+        <v>19364.211036683701</v>
       </c>
       <c r="K2">
-        <v>18464.9123915987</v>
+        <v>18456.275788321698</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -433,10 +432,10 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="T2">
-        <v>0.84899999999999998</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="U2">
-        <v>0.77700000000000002</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -454,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>23625.893631944298</v>
+        <v>22861.977817288</v>
       </c>
       <c r="AB2">
-        <v>21782.190429433598</v>
+        <v>21922.1314580617</v>
       </c>
       <c r="AC2">
-        <v>26459.936237948601</v>
+        <v>26392.876542620099</v>
       </c>
       <c r="AD2">
-        <v>22800.050996770598</v>
+        <v>22727.9472261546</v>
       </c>
       <c r="AE2">
-        <v>23764.3660123523</v>
+        <v>23601.375688390701</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -489,14 +488,14 @@
       <c r="AL2">
         <v>0</v>
       </c>
-      <c r="AM2" s="1">
-        <v>3.9402810099958599E-10</v>
-      </c>
-      <c r="AN2">
-        <v>77.392788372883302</v>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>5.0391262418280602E-10</v>
       </c>
       <c r="AO2">
-        <v>130.70909123094799</v>
+        <v>62.940286557696602</v>
       </c>
       <c r="AP2">
         <v>0</v>
@@ -505,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="AR2">
-        <v>78106.473199644097</v>
+        <v>78093.352518704996</v>
       </c>
       <c r="AS2">
-        <v>50697.273153351402</v>
+        <v>50684.166873615097</v>
       </c>
       <c r="AT2">
-        <v>184.54846031123901</v>
+        <v>184.56286151506001</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.2">
@@ -534,16 +533,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>14644.6858046045</v>
+        <v>14632.6487718975</v>
       </c>
       <c r="H3">
-        <v>27407.792237613001</v>
+        <v>27436.348027577002</v>
       </c>
       <c r="I3">
-        <v>23766.275375901299</v>
+        <v>23783.9556423457</v>
       </c>
       <c r="J3">
-        <v>19277.522172099401</v>
+        <v>19251.780761506499</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -570,10 +569,10 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>0.91500000000000004</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="T3">
-        <v>0.80900000000000005</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -594,16 +593,16 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>23135.364620228302</v>
+        <v>23116.348770770201</v>
       </c>
       <c r="AB3">
-        <v>27407.792237613001</v>
+        <v>27436.348027577002</v>
       </c>
       <c r="AC3">
-        <v>25974.0714490725</v>
+        <v>25936.7019000498</v>
       </c>
       <c r="AD3">
-        <v>23828.828395672899</v>
+        <v>23826.461338498098</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -627,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>29.939842693673999</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.4722042540484901</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>32.395950729590403</v>
+        <v>23.992015566669501</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -645,13 +644,13 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>85096.275590217905</v>
+        <v>85104.733203326701</v>
       </c>
       <c r="AS3">
-        <v>57777.725226495997</v>
+        <v>57788.213950614001</v>
       </c>
       <c r="AT3">
-        <v>275.19814288144102</v>
+        <v>277.22925389091398</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.2">
@@ -671,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13557.8254831629</v>
+        <v>13547.725702604401</v>
       </c>
       <c r="G4">
-        <v>27457.739379734499</v>
+        <v>27415.001906790701</v>
       </c>
       <c r="H4">
-        <v>28026.869818484</v>
+        <v>28082.362802842101</v>
       </c>
       <c r="I4">
-        <v>22594.787147544299</v>
+        <v>22598.365823715001</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -710,7 +709,7 @@
         <v>0.996</v>
       </c>
       <c r="S4">
-        <v>0.81200000000000006</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -731,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>27725.6144849958</v>
+        <v>27704.9605370233</v>
       </c>
       <c r="AA4">
-        <v>27457.739379734499</v>
+        <v>27415.001906790701</v>
       </c>
       <c r="AB4">
-        <v>28139.4275285984</v>
+        <v>28195.1433763475</v>
       </c>
       <c r="AC4">
-        <v>27826.092546236901</v>
+        <v>27796.267925848799</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -767,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>-2.2786858789551101E-10</v>
+        <v>3.1445825894581802E-11</v>
       </c>
       <c r="AM4">
-        <v>69.782604835440395</v>
+        <v>53.423823446857298</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -785,13 +784,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>91637.221828923794</v>
+        <v>91643.456235952006</v>
       </c>
       <c r="AS4">
-        <v>64381.757472895697</v>
+        <v>64387.991262001298</v>
       </c>
       <c r="AT4">
-        <v>338.284150573413</v>
+        <v>338.283532652492</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.2">
@@ -808,16 +807,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13547.8118764602</v>
+        <v>13547.7252403443</v>
       </c>
       <c r="F5">
-        <v>25430.750109982499</v>
+        <v>25434.236404408501</v>
       </c>
       <c r="G5">
-        <v>32678.171766084299</v>
+        <v>32289.541682388801</v>
       </c>
       <c r="H5">
-        <v>24076.056006483501</v>
+        <v>24438.780256251699</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -868,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>27705.136761677299</v>
+        <v>27704.9595917062</v>
       </c>
       <c r="Z5">
-        <v>25430.750109982499</v>
+        <v>25434.236404408501</v>
       </c>
       <c r="AA5">
-        <v>32678.171766084299</v>
+        <v>32289.541682388801</v>
       </c>
       <c r="AB5">
-        <v>24567.404088248499</v>
+        <v>24937.530873726198</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -901,22 +900,22 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.17778624373571</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>1.99341603431291E-11</v>
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>7.9164850868996899</v>
+        <v>8.8872581741550501E-3</v>
       </c>
       <c r="AM5" s="1">
-        <v>-1.6177825619341999E-16</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
+        <v>-5.2927121687274099E-13</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>-2.3403928402423801E-11</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>2.1306937627062301E-11</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -925,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>95732.789759008796</v>
+        <v>95710.283583393204</v>
       </c>
       <c r="AS5">
-        <v>68449.081454617306</v>
+        <v>68426.567323889001</v>
       </c>
       <c r="AT5">
-        <v>310.04020221046397</v>
+        <v>310.03224709915003</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.2">
@@ -957,22 +956,22 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="I6">
-        <v>1568.10975872376</v>
+        <v>1126.5994080585399</v>
       </c>
       <c r="J6">
-        <v>9869.8458710506002</v>
+        <v>10093.878331890201</v>
       </c>
       <c r="K6">
-        <v>25990.539275126699</v>
+        <v>26199.012938838699</v>
       </c>
       <c r="L6">
-        <v>19360.282094247599</v>
+        <v>19405.187296325199</v>
       </c>
       <c r="M6">
-        <v>15925.687364056201</v>
+        <v>15934.3495844096</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -993,22 +992,22 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>7.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="U6">
         <v>0.17399999999999999</v>
       </c>
       <c r="V6">
-        <v>0.96199999999999997</v>
+        <v>0.95</v>
       </c>
       <c r="W6">
-        <v>0.98399999999999999</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="X6">
-        <v>0.79100000000000004</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="Y6">
-        <v>0.63300000000000001</v>
+        <v>0.623</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1032,19 +1031,19 @@
         <v>34000</v>
       </c>
       <c r="AG6">
-        <v>9012.1250501365994</v>
+        <v>6474.7092417157701</v>
       </c>
       <c r="AH6">
-        <v>10259.7150426721</v>
+        <v>10625.1350862002</v>
       </c>
       <c r="AI6">
-        <v>26413.149669844199</v>
+        <v>27065.096011197002</v>
       </c>
       <c r="AJ6">
-        <v>24475.704289009602</v>
+        <v>24814.8175144823</v>
       </c>
       <c r="AK6">
-        <v>25159.063753319599</v>
+        <v>25576.805111411901</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1074,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>23.8237949470785</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>6.7409482626257597</v>
+        <v>14.833988702038001</v>
       </c>
       <c r="AW6">
-        <v>107.69572988842501</v>
+        <v>79.858087619757001</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -1089,13 +1088,13 @@
         <v>0</v>
       </c>
       <c r="AZ6">
-        <v>72952.464363205101</v>
+        <v>72827.027559522205</v>
       </c>
       <c r="BA6">
-        <v>49349.571813202703</v>
+        <v>49224.2746097989</v>
       </c>
       <c r="BB6">
-        <v>255.59195194692299</v>
+        <v>255.731552225672</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.2">
@@ -1121,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>348.574876358783</v>
+        <v>426.55068922957099</v>
       </c>
       <c r="I7">
-        <v>5958.6700849487697</v>
+        <v>6132.5855215791198</v>
       </c>
       <c r="J7">
-        <v>30565.014191755901</v>
+        <v>30492.7969034815</v>
       </c>
       <c r="K7">
-        <v>25217.5469133732</v>
+        <v>25191.975294191299</v>
       </c>
       <c r="L7">
-        <v>18557.016376922598</v>
+        <v>18499.746147696002</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1166,10 +1165,10 @@
         <v>0.998</v>
       </c>
       <c r="W7">
-        <v>0.94699999999999995</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="X7">
-        <v>0.79900000000000004</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1193,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>17428.743817939099</v>
+        <v>21327.534461478499</v>
       </c>
       <c r="AG7">
-        <v>5976.5998846025796</v>
+        <v>6151.0386374915997</v>
       </c>
       <c r="AH7">
-        <v>30626.2667252063</v>
+        <v>30553.904712907301</v>
       </c>
       <c r="AI7">
-        <v>26628.877416444899</v>
+        <v>27030.016410076401</v>
       </c>
       <c r="AJ7">
-        <v>23225.302098776701</v>
+        <v>22981.051113601399</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -1238,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="AU7" s="1">
-        <v>-3.1338774934949201E-12</v>
+        <v>5.7919039222264902E-14</v>
       </c>
       <c r="AV7">
-        <v>10.788178300779</v>
-      </c>
-      <c r="AW7" s="1">
-        <v>-2.48717004138803E-14</v>
+        <v>122.515584251492</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -1253,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="AZ7">
-        <v>80646.822443359095</v>
+        <v>80743.654556177498</v>
       </c>
       <c r="BA7">
-        <v>57222.045606976899</v>
+        <v>57316.646779459297</v>
       </c>
       <c r="BB7">
-        <v>433.707665566819</v>
+        <v>431.47672523089102</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.2">
@@ -1285,16 +1284,16 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4971.2507151616101</v>
+        <v>4971.2507153037004</v>
       </c>
       <c r="I8">
-        <v>33317.8047554105</v>
+        <v>33312.988828748297</v>
       </c>
       <c r="J8">
-        <v>28677.1331406764</v>
+        <v>28685.5982541915</v>
       </c>
       <c r="K8">
-        <v>22152.563662696401</v>
+        <v>22151.230895017899</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1330,7 +1329,7 @@
         <v>0.99299999999999999</v>
       </c>
       <c r="W8">
-        <v>0.79200000000000004</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1357,16 +1356,16 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>4971.2507151616101</v>
+        <v>4971.2507153037004</v>
       </c>
       <c r="AG8">
-        <v>33317.8047554105</v>
+        <v>33312.988828748297</v>
       </c>
       <c r="AH8">
-        <v>28879.288157780898</v>
+        <v>28887.812944805199</v>
       </c>
       <c r="AI8">
-        <v>27970.408665020699</v>
+        <v>27863.183515745699</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1402,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="AU8">
-        <v>2.25115153486886</v>
+        <v>65.038716205687905</v>
       </c>
       <c r="AV8">
         <v>0</v>
@@ -1417,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="AZ8">
-        <v>89118.752273944003</v>
+        <v>89121.068693259993</v>
       </c>
       <c r="BA8">
-        <v>65570.485774551998</v>
+        <v>65572.803108158798</v>
       </c>
       <c r="BB8">
-        <v>310.21800255608701</v>
+        <v>310.21891684662103</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.2">
@@ -1446,16 +1445,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4378.82726051386</v>
+        <v>4378.82726051391</v>
       </c>
       <c r="H9">
-        <v>34000</v>
+        <v>33999.999999999898</v>
       </c>
       <c r="I9">
-        <v>30602.999020662999</v>
+        <v>30701.187446170199</v>
       </c>
       <c r="J9">
-        <v>24562.8772041907</v>
+        <v>24481.368149927399</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1518,16 +1517,16 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>4378.82726051386</v>
+        <v>4378.82726051391</v>
       </c>
       <c r="AF9">
-        <v>34000</v>
+        <v>33999.999999999898</v>
       </c>
       <c r="AG9">
-        <v>30602.999020662999</v>
+        <v>30701.187446170199</v>
       </c>
       <c r="AH9">
-        <v>26497.170662557401</v>
+        <v>26409.242880180602</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1563,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>-3.5644516436120698E-11</v>
+        <v>8.67730705067515E-11</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -1581,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="AZ9">
-        <v>93544.703485366903</v>
+        <v>93561.3828566109</v>
       </c>
       <c r="BA9">
-        <v>69959.401329425702</v>
+        <v>69976.0807006697</v>
       </c>
       <c r="BB9">
-        <v>273.18234600724799</v>
+        <v>273.18234600724702</v>
       </c>
     </row>
   </sheetData>
